--- a/data/processed/economic_group_wealth_df.xlsx
+++ b/data/processed/economic_group_wealth_df.xlsx
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>304.3919333712181</v>
+        <v>296.7258181216166</v>
       </c>
       <c r="D2" t="n">
         <v>1.185982653784193</v>
@@ -871,184 +871,184 @@
         <v>-3.872153811926622</v>
       </c>
       <c r="P2" t="n">
-        <v>805.8679039583566</v>
+        <v>785.5721091280598</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.09588055120726</v>
+        <v>43.96014014652901</v>
       </c>
       <c r="R2" t="n">
-        <v>760.7720234071494</v>
+        <v>741.6119689815307</v>
       </c>
       <c r="S2" t="n">
-        <v>1231.371610733083</v>
+        <v>1200.359498886298</v>
       </c>
       <c r="T2" t="n">
-        <v>-470.599587325934</v>
+        <v>-458.7475299047676</v>
       </c>
       <c r="U2" t="n">
-        <v>612.276818579432</v>
+        <v>596.8566180376354</v>
       </c>
       <c r="V2" t="n">
-        <v>34.2626404889778</v>
+        <v>33.39973539213398</v>
       </c>
       <c r="W2" t="n">
-        <v>578.014178090454</v>
+        <v>563.4568826455014</v>
       </c>
       <c r="X2" t="n">
-        <v>935.5631222007838</v>
+        <v>912.0009514210426</v>
       </c>
       <c r="Y2" t="n">
-        <v>-357.5489441103297</v>
+        <v>-348.5440687755411</v>
       </c>
       <c r="Z2" t="n">
-        <v>728.8737894635809</v>
+        <v>710.517092521723</v>
       </c>
       <c r="AA2" t="n">
-        <v>26.67325874311404</v>
+        <v>26.00149233543534</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.2005307204669</v>
+        <v>684.5156001862878</v>
       </c>
       <c r="AC2" t="n">
-        <v>884.4073904301049</v>
+        <v>862.133577495752</v>
       </c>
       <c r="AD2" t="n">
-        <v>-182.2068597096381</v>
+        <v>-177.6179773094641</v>
       </c>
       <c r="AE2" t="n">
-        <v>-214.3118608183401</v>
+        <v>-208.9144135003577</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6845670973157461</v>
+        <v>0.6673262650571995</v>
       </c>
       <c r="AG2" t="n">
-        <v>-214.9964279156558</v>
+        <v>-209.5817397654149</v>
       </c>
       <c r="AH2" t="n">
-        <v>-344.9668281940633</v>
+        <v>-336.2788336308169</v>
       </c>
       <c r="AI2" t="n">
-        <v>129.9704002784075</v>
+        <v>126.697093865402</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-3145.666579514339</v>
+        <v>-3066.442921159479</v>
       </c>
       <c r="AK2" t="n">
-        <v>-312.2399087322446</v>
+        <v>-304.3761421095356</v>
       </c>
       <c r="AL2" t="n">
-        <v>-2833.426670782095</v>
+        <v>-2762.066779049943</v>
       </c>
       <c r="AM2" t="n">
-        <v>-2598.263509054951</v>
+        <v>-2532.8262049561</v>
       </c>
       <c r="AN2" t="n">
-        <v>-235.1631617271446</v>
+        <v>-229.2405740938434</v>
       </c>
       <c r="AO2" t="n">
-        <v>591.5560431400164</v>
+        <v>576.657695627702</v>
       </c>
       <c r="AP2" t="n">
-        <v>45.780447648523</v>
+        <v>44.62746641158621</v>
       </c>
       <c r="AQ2" t="n">
-        <v>545.7755954914934</v>
+        <v>532.0302292161158</v>
       </c>
       <c r="AR2" t="n">
-        <v>882.1419976613925</v>
+        <v>859.9252386767228</v>
       </c>
       <c r="AS2" t="n">
-        <v>-336.366402169899</v>
+        <v>-327.895009460607</v>
       </c>
       <c r="AT2" t="n">
-        <v>397.9649577610918</v>
+        <v>387.9422045372778</v>
       </c>
       <c r="AU2" t="n">
-        <v>34.94720758629355</v>
+        <v>34.06706165719118</v>
       </c>
       <c r="AV2" t="n">
-        <v>363.0177501747982</v>
+        <v>353.8751428800866</v>
       </c>
       <c r="AW2" t="n">
-        <v>587.3575443923709</v>
+        <v>572.564936131811</v>
       </c>
       <c r="AX2" t="n">
-        <v>-224.3397942175726</v>
+        <v>-218.6897932517244</v>
       </c>
       <c r="AY2" t="n">
-        <v>514.5619286452408</v>
+        <v>501.6026790213653</v>
       </c>
       <c r="AZ2" t="n">
-        <v>27.35782584042978</v>
+        <v>26.66881860049255</v>
       </c>
       <c r="BA2" t="n">
-        <v>487.2041028048109</v>
+        <v>474.9338604208727</v>
       </c>
       <c r="BB2" t="n">
-        <v>537.9128293105815</v>
+        <v>524.3654869153245</v>
       </c>
       <c r="BC2" t="n">
-        <v>-50.70872650577056</v>
+        <v>-49.43162649445171</v>
       </c>
       <c r="BD2" t="n">
-        <v>-3359.97844033268</v>
+        <v>-3275.357334659836</v>
       </c>
       <c r="BE2" t="n">
-        <v>-311.5553416349288</v>
+        <v>-303.7088158444784</v>
       </c>
       <c r="BF2" t="n">
-        <v>-3048.423098697751</v>
+        <v>-2971.648518815358</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2915.003498677796</v>
+        <v>-2841.589093353845</v>
       </c>
       <c r="BH2" t="n">
-        <v>-133.4196000199545</v>
+        <v>-130.0594254615129</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2554.110536374323</v>
+        <v>-2489.785225531777</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-266.4594610837216</v>
+        <v>-259.7486756979494</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2287.651075290602</v>
+        <v>-2230.036549833827</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1687.894649162937</v>
+        <v>-1645.384997982764</v>
       </c>
       <c r="BM2" t="n">
-        <v>-599.7564261276649</v>
+        <v>-584.6515518510636</v>
       </c>
       <c r="BN2" t="n">
-        <v>-2747.701621753248</v>
+        <v>-2678.500716622201</v>
       </c>
       <c r="BO2" t="n">
-        <v>-277.292701145951</v>
+        <v>-270.3090804523443</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2470.408920607297</v>
+        <v>-2408.191636169857</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1982.67910811558</v>
+        <v>-1932.745306068156</v>
       </c>
       <c r="BR2" t="n">
-        <v>-487.7298124917162</v>
+        <v>-475.4463301017009</v>
       </c>
       <c r="BS2" t="n">
-        <v>-2631.104650869099</v>
+        <v>-2564.840242138113</v>
       </c>
       <c r="BT2" t="n">
-        <v>-284.8820828918148</v>
+        <v>-277.707323509043</v>
       </c>
       <c r="BU2" t="n">
-        <v>-2346.222567977284</v>
+        <v>-2287.13291862907</v>
       </c>
       <c r="BV2" t="n">
-        <v>-2032.12439504401</v>
+        <v>-1980.945312729317</v>
       </c>
       <c r="BW2" t="n">
-        <v>-314.0981729332736</v>
+        <v>-306.1876058997539</v>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69.62955639839001</v>
+        <v>67.87593501224863</v>
       </c>
       <c r="D3" t="n">
         <v>0.6221971369763987</v>
@@ -1112,184 +1112,184 @@
         <v>0.01445911703085545</v>
       </c>
       <c r="P3" t="n">
-        <v>422.77911993416</v>
+        <v>412.131421676704</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.787807820231747</v>
+        <v>2.717596839911276</v>
       </c>
       <c r="R3" t="n">
-        <v>409.9625850445441</v>
+        <v>399.6376714038686</v>
       </c>
       <c r="S3" t="n">
-        <v>289.2037183372581</v>
+        <v>281.9201185032147</v>
       </c>
       <c r="T3" t="n">
-        <v>120.7588667072861</v>
+        <v>117.7175529006539</v>
       </c>
       <c r="U3" t="n">
-        <v>321.2162356182823</v>
+        <v>313.1264000729696</v>
       </c>
       <c r="V3" t="n">
-        <v>2.11810160771778</v>
+        <v>2.064757188056933</v>
       </c>
       <c r="W3" t="n">
-        <v>311.4785761720117</v>
+        <v>303.6339837208563</v>
       </c>
       <c r="X3" t="n">
-        <v>219.7292282210416</v>
+        <v>214.1953444265777</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.74934795097012</v>
+        <v>89.4386392942786</v>
       </c>
       <c r="Z3" t="n">
-        <v>265.9612556563848</v>
+        <v>259.2630175815141</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.832466521174366</v>
+        <v>1.78631582530416</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.1552583679071</v>
+        <v>252.6284294332987</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.5769375733917</v>
+        <v>201.3742944093364</v>
       </c>
       <c r="AD3" t="n">
-        <v>52.57832079451536</v>
+        <v>51.25413502396236</v>
       </c>
       <c r="AE3" t="n">
-        <v>-220.4314142499881</v>
+        <v>-214.8798458902175</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.798608936992546</v>
+        <v>-1.753310944870222</v>
       </c>
       <c r="AG3" t="n">
-        <v>-217.017251298453</v>
+        <v>-211.5516686820544</v>
       </c>
       <c r="AH3" t="n">
-        <v>-76.95584703857412</v>
+        <v>-75.01771291657376</v>
       </c>
       <c r="AI3" t="n">
-        <v>-140.0614042598789</v>
+        <v>-136.5339557654807</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-35.70496049640511</v>
+        <v>-34.80573054928919</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.1284589625513934</v>
+        <v>-0.1252237217194288</v>
       </c>
       <c r="AL3" t="n">
-        <v>-35.16188935265265</v>
+        <v>-34.2763366601559</v>
       </c>
       <c r="AM3" t="n">
-        <v>-665.6482573651182</v>
+        <v>-648.8838963646766</v>
       </c>
       <c r="AN3" t="n">
-        <v>630.4863680124655</v>
+        <v>614.6075597045208</v>
       </c>
       <c r="AO3" t="n">
-        <v>202.3477056841714</v>
+        <v>197.251575786486</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.9891988832391989</v>
+        <v>0.9642858950410502</v>
       </c>
       <c r="AQ3" t="n">
-        <v>192.9453337460905</v>
+        <v>188.0860027218137</v>
       </c>
       <c r="AR3" t="n">
-        <v>211.2727606353898</v>
+        <v>205.9518530995217</v>
       </c>
       <c r="AS3" t="n">
-        <v>-18.32742688929931</v>
+        <v>-17.86585037770804</v>
       </c>
       <c r="AT3" t="n">
-        <v>100.7848213682944</v>
+        <v>98.24655418275236</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3194926707252357</v>
+        <v>0.311446243186712</v>
       </c>
       <c r="AV3" t="n">
-        <v>94.46132487355889</v>
+        <v>92.08231503880211</v>
       </c>
       <c r="AW3" t="n">
-        <v>142.0325182547446</v>
+        <v>138.4554272258436</v>
       </c>
       <c r="AX3" t="n">
-        <v>-47.5711933811857</v>
+        <v>-46.37311218704151</v>
       </c>
       <c r="AY3" t="n">
-        <v>45.52984140639617</v>
+        <v>44.38317169129616</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.03385758418181901</v>
+        <v>0.03300488043393627</v>
       </c>
       <c r="BA3" t="n">
-        <v>42.13800706945356</v>
+        <v>41.0767607512438</v>
       </c>
       <c r="BB3" t="n">
-        <v>129.2716221217855</v>
+        <v>126.0159144467731</v>
       </c>
       <c r="BC3" t="n">
-        <v>-87.13361505233198</v>
+        <v>-84.9391536955293</v>
       </c>
       <c r="BD3" t="n">
-        <v>-256.1363747463935</v>
+        <v>-249.6855764395069</v>
       </c>
       <c r="BE3" t="n">
-        <v>-1.92706789954394</v>
+        <v>-1.878534666589652</v>
       </c>
       <c r="BF3" t="n">
-        <v>-252.1791406511059</v>
+        <v>-245.8280053422106</v>
       </c>
       <c r="BG3" t="n">
-        <v>-736.1472242016604</v>
+        <v>-717.6073457006034</v>
       </c>
       <c r="BH3" t="n">
-        <v>483.9680835505545</v>
+        <v>471.7793403583929</v>
       </c>
       <c r="BI3" t="n">
-        <v>166.6427451877649</v>
+        <v>162.4458452371955</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.8607399206878028</v>
+        <v>0.8390621733216187</v>
       </c>
       <c r="BK3" t="n">
-        <v>157.7834443934366</v>
+        <v>153.8096660616565</v>
       </c>
       <c r="BL3" t="n">
-        <v>-447.9186111156155</v>
+        <v>-436.6377744087304</v>
       </c>
       <c r="BM3" t="n">
-        <v>605.7020555090521</v>
+        <v>590.4474404703869</v>
       </c>
       <c r="BN3" t="n">
-        <v>65.07986087188876</v>
+        <v>63.44082363346268</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.1910337081738404</v>
+        <v>0.1862225214672813</v>
       </c>
       <c r="BP3" t="n">
-        <v>59.29943552090587</v>
+        <v>57.80597837864586</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-517.1588547963875</v>
+        <v>-504.1342015497914</v>
       </c>
       <c r="BR3" t="n">
-        <v>576.4582903172933</v>
+        <v>561.9401799284373</v>
       </c>
       <c r="BS3" t="n">
-        <v>9.824880909990387</v>
+        <v>9.577441142006318</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.09460137836957548</v>
+        <v>-0.09221884128549353</v>
       </c>
       <c r="BU3" t="n">
-        <v>6.976117716800338</v>
+        <v>6.800424091087336</v>
       </c>
       <c r="BV3" t="n">
-        <v>-529.9198817390807</v>
+        <v>-516.5738418441512</v>
       </c>
       <c r="BW3" t="n">
-        <v>536.895999455881</v>
+        <v>523.3742659352384</v>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.31740201574306</v>
+        <v>40.27682264769349</v>
       </c>
       <c r="D4" t="n">
         <v>1.015644387471239</v>
@@ -1353,184 +1353,184 @@
         <v>-2.607676646850768</v>
       </c>
       <c r="P4" t="n">
-        <v>690.1241018044852</v>
+        <v>672.7433163074238</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.42210141877622</v>
+        <v>10.15962064363052</v>
       </c>
       <c r="R4" t="n">
-        <v>679.7020003857091</v>
+        <v>662.5836956637934</v>
       </c>
       <c r="S4" t="n">
-        <v>162.842412897709</v>
+        <v>158.7412243708941</v>
       </c>
       <c r="T4" t="n">
-        <v>516.8595874880001</v>
+        <v>503.8424712928992</v>
       </c>
       <c r="U4" t="n">
-        <v>524.3377821629592</v>
+        <v>511.132327526684</v>
       </c>
       <c r="V4" t="n">
-        <v>7.918433118202755</v>
+        <v>7.719007265460548</v>
       </c>
       <c r="W4" t="n">
-        <v>516.4193490447565</v>
+        <v>503.4133202612235</v>
       </c>
       <c r="X4" t="n">
-        <v>123.7232975889304</v>
+        <v>120.6073245476186</v>
       </c>
       <c r="Y4" t="n">
-        <v>392.6960514558261</v>
+        <v>382.8059957136049</v>
       </c>
       <c r="Z4" t="n">
-        <v>514.1801471926212</v>
+        <v>501.2305127401583</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.66613596777389</v>
+        <v>5.523434251378883</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.5140112248473</v>
+        <v>495.7070784887794</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.0016795151887</v>
+        <v>115.0298055079141</v>
       </c>
       <c r="AD4" t="n">
-        <v>390.5123317096586</v>
+        <v>380.6772729808653</v>
       </c>
       <c r="AE4" t="n">
-        <v>-15.86940597018605</v>
+        <v>-15.46973475103519</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1396950242907625</v>
+        <v>0.1361768030811918</v>
       </c>
       <c r="AG4" t="n">
-        <v>-16.00910099447681</v>
+        <v>-15.60591155411638</v>
       </c>
       <c r="AH4" t="n">
-        <v>-46.87171065650386</v>
+        <v>-45.6912459449094</v>
       </c>
       <c r="AI4" t="n">
-        <v>30.86260966202706</v>
+        <v>30.08533439079302</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-2270.210951477257</v>
+        <v>-2213.035655791258</v>
       </c>
       <c r="AK4" t="n">
-        <v>-44.6486998397346</v>
+        <v>-43.52422168775004</v>
       </c>
       <c r="AL4" t="n">
-        <v>-2225.562251637522</v>
+        <v>-2169.511434103508</v>
       </c>
       <c r="AM4" t="n">
-        <v>-350.4157765708561</v>
+        <v>-341.5905501638384</v>
       </c>
       <c r="AN4" t="n">
-        <v>-1875.146475066666</v>
+        <v>-1827.920883939669</v>
       </c>
       <c r="AO4" t="n">
-        <v>674.2546958342991</v>
+        <v>657.2735815563885</v>
       </c>
       <c r="AP4" t="n">
-        <v>10.56179644306699</v>
+        <v>10.29579744671172</v>
       </c>
       <c r="AQ4" t="n">
-        <v>663.6928993912321</v>
+        <v>646.9777841096768</v>
       </c>
       <c r="AR4" t="n">
-        <v>115.392082451433</v>
+        <v>112.4859311839965</v>
       </c>
       <c r="AS4" t="n">
-        <v>548.3008169397991</v>
+        <v>534.4918529256803</v>
       </c>
       <c r="AT4" t="n">
-        <v>508.4683761927736</v>
+        <v>495.6625927756492</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.058128142493519</v>
+        <v>7.855184068541742</v>
       </c>
       <c r="AV4" t="n">
-        <v>500.41024805028</v>
+        <v>487.8074087071074</v>
       </c>
       <c r="AW4" t="n">
-        <v>76.41196713579667</v>
+        <v>74.48753063702324</v>
       </c>
       <c r="AX4" t="n">
-        <v>423.9982809144833</v>
+        <v>413.3198780700841</v>
       </c>
       <c r="AY4" t="n">
-        <v>498.3107412224348</v>
+        <v>485.7607779891227</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.805830992064652</v>
+        <v>5.659611054460074</v>
       </c>
       <c r="BA4" t="n">
-        <v>492.5049102303701</v>
+        <v>480.1011669346626</v>
       </c>
       <c r="BB4" t="n">
-        <v>70.92259820087921</v>
+        <v>69.13641153821867</v>
       </c>
       <c r="BC4" t="n">
-        <v>421.5823120294909</v>
+        <v>410.9647553964439</v>
       </c>
       <c r="BD4" t="n">
-        <v>-2286.080357447443</v>
+        <v>-2228.505390542293</v>
       </c>
       <c r="BE4" t="n">
-        <v>-44.50900481544383</v>
+        <v>-43.38804488466886</v>
       </c>
       <c r="BF4" t="n">
-        <v>-2241.571352631999</v>
+        <v>-2185.117345657624</v>
       </c>
       <c r="BG4" t="n">
-        <v>-393.4560465450664</v>
+        <v>-383.5468503155179</v>
       </c>
       <c r="BH4" t="n">
-        <v>-1848.115306086933</v>
+        <v>-1801.570495342107</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1595.956255642958</v>
+        <v>-1555.762074234869</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-34.0869033966676</v>
+        <v>-33.22842424103832</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1561.86935224629</v>
+        <v>-1522.533649993831</v>
       </c>
       <c r="BL4" t="n">
-        <v>-231.1922502256611</v>
+        <v>-225.3696700560244</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1330.677102020629</v>
+        <v>-1297.163979937807</v>
       </c>
       <c r="BN4" t="n">
-        <v>-1761.742575284483</v>
+        <v>-1717.373063015608</v>
       </c>
       <c r="BO4" t="n">
-        <v>-36.59057169724108</v>
+        <v>-35.6690376192083</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1725.152003587242</v>
+        <v>-1681.7040253964</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-270.1723663127781</v>
+        <v>-263.3680713550485</v>
       </c>
       <c r="BR4" t="n">
-        <v>-1454.979637274464</v>
+        <v>-1418.335954041351</v>
       </c>
       <c r="BS4" t="n">
-        <v>-1771.900210254822</v>
+        <v>-1727.274877802135</v>
       </c>
       <c r="BT4" t="n">
-        <v>-38.84286884766995</v>
+        <v>-37.86461063328997</v>
       </c>
       <c r="BU4" t="n">
-        <v>-1733.057341407152</v>
+        <v>-1689.410267168845</v>
       </c>
       <c r="BV4" t="n">
-        <v>-275.6618128687326</v>
+        <v>-268.7192661200032</v>
       </c>
       <c r="BW4" t="n">
-        <v>-1457.39552853842</v>
+        <v>-1420.691001048842</v>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>264.1145392529322</v>
+        <v>257.4628107574233</v>
       </c>
       <c r="D5" t="n">
         <v>1.355671368762723</v>
@@ -1594,184 +1594,184 @@
         <v>-1.146546793778245</v>
       </c>
       <c r="P5" t="n">
-        <v>921.1703399837132</v>
+        <v>897.9706516325189</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.1766173808977</v>
+        <v>16.74402402343943</v>
       </c>
       <c r="R5" t="n">
-        <v>885.8124572771836</v>
+        <v>863.5032577139413</v>
       </c>
       <c r="S5" t="n">
-        <v>1090.387632427092</v>
+        <v>1062.926204115415</v>
       </c>
       <c r="T5" t="n">
-        <v>-204.5751751499082</v>
+        <v>-199.4229464014741</v>
       </c>
       <c r="U5" t="n">
-        <v>699.8805168497009</v>
+        <v>682.2540158984511</v>
       </c>
       <c r="V5" t="n">
-        <v>13.05033317777559</v>
+        <v>12.72166034772225</v>
       </c>
       <c r="W5" t="n">
-        <v>673.0165459322325</v>
+        <v>656.066614477534</v>
       </c>
       <c r="X5" t="n">
-        <v>828.4472769315266</v>
+        <v>807.5828202659474</v>
       </c>
       <c r="Y5" t="n">
-        <v>-155.430730999294</v>
+        <v>-151.5162057884133</v>
       </c>
       <c r="Z5" t="n">
-        <v>521.3777217177418</v>
+        <v>508.2468162466416</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.710240486022448</v>
+        <v>5.566427996696711</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.0867822969387</v>
+        <v>493.3409793565668</v>
       </c>
       <c r="AC5" t="n">
-        <v>784.8154584495983</v>
+        <v>765.0498697642827</v>
       </c>
       <c r="AD5" t="n">
-        <v>-278.7286761526597</v>
+        <v>-271.7088904077158</v>
       </c>
       <c r="AE5" t="n">
-        <v>-317.9288619581387</v>
+        <v>-309.9218189660585</v>
       </c>
       <c r="AF5" t="n">
-        <v>-8.124083634040804</v>
+        <v>-7.919478470079362</v>
       </c>
       <c r="AG5" t="n">
-        <v>-294.0847607726967</v>
+        <v>-286.6782318142385</v>
       </c>
       <c r="AH5" t="n">
-        <v>-290.6024619595065</v>
+        <v>-283.2836347470828</v>
       </c>
       <c r="AI5" t="n">
-        <v>-3.482298813190212</v>
+        <v>-3.394597067155728</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-982.5203398896783</v>
+        <v>-957.7755509024936</v>
       </c>
       <c r="AK5" t="n">
-        <v>-15.00265231412534</v>
+        <v>-14.62481029835312</v>
       </c>
       <c r="AL5" t="n">
-        <v>-939.6352755103203</v>
+        <v>-915.9705474905128</v>
       </c>
       <c r="AM5" t="n">
-        <v>-2510.380529392866</v>
+        <v>-2447.156559409366</v>
       </c>
       <c r="AN5" t="n">
-        <v>1570.745253882546</v>
+        <v>1531.186011918853</v>
       </c>
       <c r="AO5" t="n">
-        <v>603.2414780255738</v>
+        <v>588.0488326664595</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.052533746856893</v>
+        <v>8.824545553360059</v>
       </c>
       <c r="AQ5" t="n">
-        <v>591.7276965044861</v>
+        <v>576.8250258997019</v>
       </c>
       <c r="AR5" t="n">
-        <v>796.0864408349706</v>
+        <v>776.0369922950736</v>
       </c>
       <c r="AS5" t="n">
-        <v>-204.3587443304846</v>
+        <v>-199.2119663953717</v>
       </c>
       <c r="AT5" t="n">
-        <v>381.9516548915622</v>
+        <v>372.3321969323927</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.926249543734782</v>
+        <v>4.802181877642883</v>
       </c>
       <c r="AV5" t="n">
-        <v>378.9317851595357</v>
+        <v>369.3883826632954</v>
       </c>
       <c r="AW5" t="n">
-        <v>535.03461940384</v>
+        <v>521.5597647667612</v>
       </c>
       <c r="AX5" t="n">
-        <v>-156.1028342443043</v>
+        <v>-152.1713821034658</v>
       </c>
       <c r="AY5" t="n">
-        <v>203.448859759602</v>
+        <v>198.324997280582</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-2.413843148018363</v>
+        <v>-2.353050473382658</v>
       </c>
       <c r="BA5" t="n">
-        <v>212.0020215242408</v>
+        <v>206.6627475423271</v>
       </c>
       <c r="BB5" t="n">
-        <v>492.8874144576096</v>
+        <v>480.4740377874003</v>
       </c>
       <c r="BC5" t="n">
-        <v>-280.8853929333688</v>
+        <v>-273.8112902450732</v>
       </c>
       <c r="BD5" t="n">
-        <v>-1300.449201847817</v>
+        <v>-1267.697369868552</v>
       </c>
       <c r="BE5" t="n">
-        <v>-23.12673594816615</v>
+        <v>-22.54428876843248</v>
       </c>
       <c r="BF5" t="n">
-        <v>-1233.720036283017</v>
+        <v>-1202.648779304752</v>
       </c>
       <c r="BG5" t="n">
-        <v>-2776.491151567933</v>
+        <v>-2706.565181711626</v>
       </c>
       <c r="BH5" t="n">
-        <v>1542.771115284915</v>
+        <v>1503.916402406875</v>
       </c>
       <c r="BI5" t="n">
-        <v>-379.2788618641066</v>
+        <v>-369.726718236036</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-5.95011856726845</v>
+        <v>-5.800264744993056</v>
       </c>
       <c r="BK5" t="n">
-        <v>-347.9075790058361</v>
+        <v>-339.1455215908126</v>
       </c>
       <c r="BL5" t="n">
-        <v>-1689.802228244684</v>
+        <v>-1647.244534657715</v>
       </c>
       <c r="BM5" t="n">
-        <v>1341.894649238848</v>
+        <v>1308.099013066903</v>
       </c>
       <c r="BN5" t="n">
-        <v>-600.5686849981162</v>
+        <v>-585.4433539701009</v>
       </c>
       <c r="BO5" t="n">
-        <v>-10.07640277039055</v>
+        <v>-9.822628420710227</v>
       </c>
       <c r="BP5" t="n">
-        <v>-560.7034903507845</v>
+        <v>-546.5821648272172</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-1950.854054607375</v>
+        <v>-1901.721766993386</v>
       </c>
       <c r="BR5" t="n">
-        <v>1390.15056425659</v>
+        <v>1355.139602166169</v>
       </c>
       <c r="BS5" t="n">
-        <v>-779.0714801300769</v>
+        <v>-759.4505536219121</v>
       </c>
       <c r="BT5" t="n">
-        <v>-17.4164954621437</v>
+        <v>-16.97786077173577</v>
       </c>
       <c r="BU5" t="n">
-        <v>-727.6332539860799</v>
+        <v>-709.307799948186</v>
       </c>
       <c r="BV5" t="n">
-        <v>-1993.001755733022</v>
+        <v>-1942.807977655878</v>
       </c>
       <c r="BW5" t="n">
-        <v>1265.368501746942</v>
+        <v>1233.500177707692</v>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
